--- a/biology/Zoologie/Hydrophilus/Hydrophilus.xlsx
+++ b/biology/Zoologie/Hydrophilus/Hydrophilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrophilus (les hydrophiles) est un genre de coléoptères de la famille des Hydrophilidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hydrophilus est décrit par Étienne Louis Geoffroy en 1762[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hydrophilus est décrit par Étienne Louis Geoffroy en 1762,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hydrophilus aculeatus
@@ -595,9 +611,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de onze[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de onze :
 †Hydrophilus antiquus, Oustalet 1874
 †Hydrophilus carbonarius, Heer 1847
 †Hydrophilus extricatus, Scudder 1900
@@ -608,7 +626,7 @@
 †Hydrophilus pistaceus, Laporte de Castelnau 1840
 †Hydrophilus rottensis, Statz 1939
 †Hydrophilus spectabilis, Heer 1847
-†Hydrophilus vexatorius, Heer 1847[2]
+†Hydrophilus vexatorius, Heer 1847
 </t>
         </is>
       </c>
